--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_23_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>481089.6332646935</v>
+        <v>572993.6190112252</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8088944.869226764</v>
+        <v>8547013.059513936</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8722880.896883905</v>
+        <v>8506890.903312847</v>
       </c>
     </row>
     <row r="11">
@@ -656,73 +658,73 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88.09081815943075</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>165.1725371760945</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>187.5255871663199</v>
       </c>
-      <c r="E2" t="n">
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>187.5255871663199</v>
-      </c>
-      <c r="F2" t="n">
-        <v>187.5255871663199</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>77.08171901666378</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -792,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="W3" t="n">
         <v>187.5255871663199</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.1725371760944</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="4">
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C5" t="n">
-        <v>88.09081815943053</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>39.7012200561197</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>77.08171901666384</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="6">
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>92.73964154763127</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V6" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W6" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>165.1725371760944</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1093,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>34.10833718734057</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>52.21594625443417</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>6.396723986041489</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>249.4884782569922</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
     </row>
     <row r="9">
@@ -1209,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.84238737960263</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>66.66807614108124</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1297,19 +1299,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>10.72567387873473</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1367,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>141.1762660121933</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>410.9217256534534</v>
@@ -1388,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U11" t="n">
         <v>250.995171958902</v>
@@ -1430,13 +1432,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>78.78083674901936</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498671</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1464,10 +1466,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1585,7 +1587,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>61.36917500887014</v>
+        <v>150.3013276789167</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,10 +1624,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>1.194812067118009</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>6.632494016570553</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1673,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1777,13 +1779,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>106.4735778903242</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,10 +1821,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>61.36917500887012</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1841,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1859,7 +1861,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>210.0946544764302</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>34.16966515648379</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1938,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2002,10 +2004,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2017,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>85.6745376341686</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>20.95866062610972</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>33.78298043858156</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2093,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2132,16 +2134,16 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
-        <v>250.995171958902</v>
+        <v>52.32391940463612</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2163,7 +2165,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646384</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2175,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734084892</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2248,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2290,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>256.1157837280783</v>
+        <v>87.93270968653111</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>85.17289288835215</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2479,7 +2481,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>94.79129945133089</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -2521,25 +2523,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>182.699268699391</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2558,16 +2560,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>354.9731491131957</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>32.979508847362</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2615,7 +2617,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2685,7 +2687,7 @@
         <v>128.1435076414547</v>
       </c>
       <c r="T27" t="n">
-        <v>190.7165703189229</v>
+        <v>190.7165703189231</v>
       </c>
       <c r="U27" t="n">
         <v>225.7871683969286</v>
@@ -2728,10 +2730,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>10.80487962572865</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>87.93270968653133</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,7 +2769,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2779,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2804,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>229.796569204138</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2852,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>126.5388824951718</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2889,7 +2891,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I30" t="n">
-        <v>18.8172186824772</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>58.28185552386306</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>166.3516656678852</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -3010,10 +3012,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3029,25 +3031,25 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3095,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>61.26635328439252</v>
+        <v>152.6608630788531</v>
       </c>
     </row>
     <row r="33">
@@ -3187,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>3.797794845138544</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>99.6160534792966</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3269,10 +3271,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>145.2481701217147</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>126.7498226612777</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -3281,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3421,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3469,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>54.45803047044426</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -3478,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.38664856090008</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3515,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>410.9217256534534</v>
+        <v>229.7965692041367</v>
       </c>
       <c r="H38" t="n">
-        <v>183.1060521027585</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3706,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>28.78048096121077</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>88.58584547962775</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3755,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>25.87859906451666</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3803,7 +3805,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>154.1552139341847</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3901,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>73.30851350452836</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>87.93270968653133</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3980,7 +3982,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>318.8808837491605</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4028,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4037,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>168.1158122680967</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4101,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>107.0168755635109</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,19 +4188,19 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>161.0476963161315</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>583.2614020227597</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C2" t="n">
-        <v>583.2614020227597</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D2" t="n">
-        <v>393.841617006275</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E2" t="n">
-        <v>204.4218319897903</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F2" t="n">
         <v>15.00204697330559</v>
@@ -4352,28 +4354,28 @@
         <v>750.1023486652795</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262252</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S2" t="n">
-        <v>672.2420264262252</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T2" t="n">
-        <v>672.2420264262252</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="U2" t="n">
-        <v>672.2420264262252</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="V2" t="n">
-        <v>672.2420264262252</v>
+        <v>393.841617006275</v>
       </c>
       <c r="W2" t="n">
-        <v>672.2420264262252</v>
+        <v>393.841617006275</v>
       </c>
       <c r="X2" t="n">
-        <v>672.2420264262252</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y2" t="n">
-        <v>672.2420264262252</v>
+        <v>204.4218319897903</v>
       </c>
     </row>
     <row r="3">
@@ -4416,13 +4418,13 @@
         <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140243</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N3" t="n">
-        <v>512.50005875466</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476347</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P3" t="n">
         <v>739.598998701706</v>
@@ -4440,16 +4442,16 @@
         <v>750.1023486652795</v>
       </c>
       <c r="U3" t="n">
-        <v>560.6825636487947</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V3" t="n">
-        <v>371.26277863231</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="W3" t="n">
-        <v>181.8429936158252</v>
+        <v>393.841617006275</v>
       </c>
       <c r="X3" t="n">
-        <v>181.8429936158252</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y3" t="n">
         <v>15.00204697330559</v>
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>482.8222414097399</v>
+        <v>371.26277863231</v>
       </c>
       <c r="C5" t="n">
-        <v>393.8416170062748</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="D5" t="n">
-        <v>393.8416170062748</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="E5" t="n">
-        <v>204.4218319897902</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="F5" t="n">
-        <v>15.00204697330558</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="G5" t="n">
-        <v>15.00204697330558</v>
+        <v>181.8429936158252</v>
       </c>
       <c r="H5" t="n">
-        <v>15.00204697330558</v>
+        <v>141.7407511348962</v>
       </c>
       <c r="I5" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J5" t="n">
-        <v>21.03371160678491</v>
+        <v>21.03371160678495</v>
       </c>
       <c r="K5" t="n">
-        <v>80.81213159058962</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L5" t="n">
-        <v>191.8743094079188</v>
+        <v>191.8743094079183</v>
       </c>
       <c r="M5" t="n">
-        <v>347.1218190644756</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N5" t="n">
-        <v>509.4952041123829</v>
+        <v>509.4952041123826</v>
       </c>
       <c r="O5" t="n">
         <v>649.484525998558</v>
       </c>
       <c r="P5" t="n">
-        <v>734.461172602026</v>
+        <v>734.4611726020263</v>
       </c>
       <c r="Q5" t="n">
-        <v>750.102348665279</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R5" t="n">
-        <v>672.2420264262246</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="S5" t="n">
-        <v>672.2420264262246</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="T5" t="n">
-        <v>672.2420264262246</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="U5" t="n">
-        <v>672.2420264262246</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="V5" t="n">
-        <v>672.2420264262246</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="W5" t="n">
-        <v>672.2420264262246</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="X5" t="n">
-        <v>672.2420264262246</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="Y5" t="n">
-        <v>672.2420264262246</v>
+        <v>560.6825636487947</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C6" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D6" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E6" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F6" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G6" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H6" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I6" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J6" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K6" t="n">
-        <v>67.13418877024203</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L6" t="n">
-        <v>183.5548280772647</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M6" t="n">
-        <v>338.7690911140241</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N6" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O6" t="n">
-        <v>649.2101578476343</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P6" t="n">
-        <v>739.5989987017056</v>
+        <v>739.598998701706</v>
       </c>
       <c r="Q6" t="n">
-        <v>750.102348665279</v>
+        <v>750.1023486652795</v>
       </c>
       <c r="R6" t="n">
-        <v>750.102348665279</v>
+        <v>676.9378076264277</v>
       </c>
       <c r="S6" t="n">
-        <v>750.102348665279</v>
+        <v>583.2614020227597</v>
       </c>
       <c r="T6" t="n">
-        <v>750.102348665279</v>
+        <v>393.841617006275</v>
       </c>
       <c r="U6" t="n">
-        <v>750.102348665279</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="V6" t="n">
-        <v>560.6825636487944</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W6" t="n">
-        <v>371.2627786323097</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X6" t="n">
-        <v>204.4218319897902</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y6" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C7" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D7" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E7" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F7" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G7" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H7" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I7" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J7" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K7" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L7" t="n">
-        <v>27.03967056230169</v>
+        <v>27.03967056230175</v>
       </c>
       <c r="M7" t="n">
-        <v>42.98993985170704</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N7" t="n">
-        <v>66.41847329396313</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O7" t="n">
-        <v>67.7454270282896</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P7" t="n">
-        <v>67.7454270282896</v>
+        <v>49.45491281910415</v>
       </c>
       <c r="Q7" t="n">
-        <v>67.7454270282896</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="R7" t="n">
-        <v>67.7454270282896</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="S7" t="n">
-        <v>67.7454270282896</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="T7" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U7" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V7" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W7" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X7" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y7" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1156.385664683499</v>
+        <v>21.46338433294346</v>
       </c>
       <c r="C8" t="n">
-        <v>787.4231477430878</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D8" t="n">
-        <v>429.1574491363373</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232717</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>734.4611726020265</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>589.7227393823978</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>589.7227393823978</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>589.7227393823978</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904653</v>
+        <v>589.7227393823978</v>
       </c>
       <c r="W8" t="n">
-        <v>1916.451263008701</v>
+        <v>589.7227393823978</v>
       </c>
       <c r="X8" t="n">
-        <v>1542.985504747621</v>
+        <v>400.302954365913</v>
       </c>
       <c r="Y8" t="n">
-        <v>1542.985504747621</v>
+        <v>210.8831693494282</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>254.4883546869462</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="C9" t="n">
-        <v>80.03532540581918</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="D9" t="n">
-        <v>80.03532540581918</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="E9" t="n">
-        <v>80.03532540581918</v>
+        <v>366.4172771755687</v>
       </c>
       <c r="F9" t="n">
-        <v>80.03532540581918</v>
+        <v>219.8827192024537</v>
       </c>
       <c r="G9" t="n">
-        <v>80.03532540581918</v>
+        <v>82.34353802490281</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581918</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>67.13418877024216</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>676.9378076264279</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474382</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="T9" t="n">
-        <v>1400.563316948358</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="U9" t="n">
-        <v>1172.461727081622</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="V9" t="n">
-        <v>937.3096188498796</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="W9" t="n">
-        <v>683.072262121678</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="X9" t="n">
-        <v>475.2207619161452</v>
+        <v>525.6547321810242</v>
       </c>
       <c r="Y9" t="n">
-        <v>267.4604631511913</v>
+        <v>525.6547321810242</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.2893470405991</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C10" t="n">
-        <v>520.2893470405991</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D10" t="n">
-        <v>520.2893470405991</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E10" t="n">
-        <v>372.376253458206</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F10" t="n">
-        <v>372.376253458206</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G10" t="n">
-        <v>204.2434240532243</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H10" t="n">
-        <v>54.20321055701703</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981521</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S10" t="n">
-        <v>520.2893470405991</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470405991</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="11">
@@ -5015,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>921.7704558796252</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C11" t="n">
-        <v>921.7704558796252</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D11" t="n">
-        <v>921.7704558796252</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E11" t="n">
-        <v>921.7704558796252</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F11" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G11" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H11" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I11" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R11" t="n">
         <v>3325.60582160917</v>
@@ -5072,19 +5074,19 @@
         <v>3009.337405520487</v>
       </c>
       <c r="U11" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V11" t="n">
-        <v>2424.744041450753</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W11" t="n">
-        <v>2071.975386180638</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="X11" t="n">
-        <v>1698.509627919559</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="Y11" t="n">
-        <v>1308.370295943747</v>
+        <v>2345.167438673965</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5096,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I12" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J12" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M12" t="n">
         <v>1212.428070438129</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="C13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J13" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962279</v>
       </c>
       <c r="K13" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L13" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M13" t="n">
-        <v>499.7880494588483</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N13" t="n">
-        <v>671.0968864886958</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O13" t="n">
-        <v>809.0152357068855</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P13" t="n">
-        <v>907.9662384596442</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q13" t="n">
-        <v>920.8870058181849</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R13" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S13" t="n">
-        <v>639.3706644025392</v>
+        <v>729.2011216450105</v>
       </c>
       <c r="T13" t="n">
-        <v>417.6040489720652</v>
+        <v>507.4345062145366</v>
       </c>
       <c r="U13" t="n">
-        <v>128.5011820977088</v>
+        <v>218.3316393401801</v>
       </c>
       <c r="V13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="W13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="X13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="Y13" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2005.586939522201</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="C14" t="n">
-        <v>1636.624422581789</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D14" t="n">
-        <v>1278.358723975039</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E14" t="n">
-        <v>892.5704713767946</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218343</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3324.398940733295</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T14" t="n">
-        <v>3118.421193117517</v>
+        <v>3318.906332703543</v>
       </c>
       <c r="U14" t="n">
-        <v>3118.421193117517</v>
+        <v>3065.37585597738</v>
       </c>
       <c r="V14" t="n">
-        <v>3118.421193117517</v>
+        <v>2734.312968633809</v>
       </c>
       <c r="W14" t="n">
-        <v>2765.652537847403</v>
+        <v>2381.544313363695</v>
       </c>
       <c r="X14" t="n">
-        <v>2392.186779586323</v>
+        <v>2008.078555102614</v>
       </c>
       <c r="Y14" t="n">
-        <v>2392.186779586323</v>
+        <v>1617.939223126803</v>
       </c>
     </row>
     <row r="15">
@@ -5349,28 +5351,28 @@
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P15" t="n">
         <v>2407.411984886741</v>
@@ -5410,52 +5412,52 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.51211643218343</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="C16" t="n">
-        <v>66.51211643218343</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="D16" t="n">
-        <v>66.51211643218343</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="E16" t="n">
-        <v>66.51211643218343</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="F16" t="n">
-        <v>66.51211643218343</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="G16" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H16" t="n">
-        <v>66.51211643218343</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J16" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K16" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L16" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M16" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N16" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O16" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P16" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q16" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R16" t="n">
         <v>831.0565485757129</v>
@@ -5467,19 +5469,19 @@
         <v>417.6040489720652</v>
       </c>
       <c r="U16" t="n">
-        <v>128.5011820977088</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="V16" t="n">
-        <v>66.51211643218343</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="W16" t="n">
-        <v>66.51211643218343</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="X16" t="n">
-        <v>66.51211643218343</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="Y16" t="n">
-        <v>66.51211643218343</v>
+        <v>417.6040489720652</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1647.321240915451</v>
+        <v>2217.803762225666</v>
       </c>
       <c r="C17" t="n">
-        <v>1278.358723975039</v>
+        <v>1848.841245285254</v>
       </c>
       <c r="D17" t="n">
-        <v>1278.358723975039</v>
+        <v>1490.575546678504</v>
       </c>
       <c r="E17" t="n">
-        <v>892.5704713767946</v>
+        <v>1104.787294080259</v>
       </c>
       <c r="F17" t="n">
-        <v>481.5845665871869</v>
+        <v>693.8013892906517</v>
       </c>
       <c r="G17" t="n">
-        <v>66.51211643218343</v>
+        <v>278.7289391356482</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.97538618064</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="X17" t="n">
-        <v>2037.460572891262</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="Y17" t="n">
-        <v>1647.321240915451</v>
+        <v>2604.403602289788</v>
       </c>
     </row>
     <row r="18">
@@ -5568,52 +5570,52 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D18" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R18" t="n">
         <v>2564.909189125856</v>
@@ -5625,7 +5627,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U18" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
         <v>1779.608347199865</v>
@@ -5634,10 +5636,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X18" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y18" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.51211643218343</v>
+        <v>472.1048757766367</v>
       </c>
       <c r="C19" t="n">
-        <v>66.51211643218343</v>
+        <v>303.1686928487298</v>
       </c>
       <c r="D19" t="n">
-        <v>66.51211643218343</v>
+        <v>153.0520534363941</v>
       </c>
       <c r="E19" t="n">
-        <v>66.51211643218343</v>
+        <v>153.0520534363941</v>
       </c>
       <c r="F19" t="n">
-        <v>66.51211643218343</v>
+        <v>153.0520534363941</v>
       </c>
       <c r="G19" t="n">
-        <v>66.51211643218343</v>
+        <v>153.0520534363941</v>
       </c>
       <c r="H19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J19" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962282</v>
       </c>
       <c r="K19" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L19" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M19" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588479</v>
       </c>
       <c r="N19" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886953</v>
       </c>
       <c r="O19" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068849</v>
       </c>
       <c r="P19" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596435</v>
       </c>
       <c r="Q19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="R19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="S19" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="T19" t="n">
-        <v>899.7166415493873</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="U19" t="n">
-        <v>610.6137746750309</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="V19" t="n">
-        <v>355.929286469144</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="W19" t="n">
-        <v>66.51211643218343</v>
+        <v>920.8870058181842</v>
       </c>
       <c r="X19" t="n">
-        <v>66.51211643218343</v>
+        <v>692.8974549201669</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.51211643218343</v>
+        <v>472.1048757766367</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1590.514489367197</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C20" t="n">
-        <v>1221.551972426786</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D20" t="n">
-        <v>863.2862738200351</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E20" t="n">
-        <v>477.498021221791</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F20" t="n">
-        <v>66.51211643218343</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G20" t="n">
-        <v>66.51211643218343</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.605821609171</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U20" t="n">
-        <v>3072.075344883008</v>
+        <v>3066.775630150325</v>
       </c>
       <c r="V20" t="n">
-        <v>2741.012457539437</v>
+        <v>3066.775630150325</v>
       </c>
       <c r="W20" t="n">
-        <v>2388.243802269323</v>
+        <v>3066.775630150325</v>
       </c>
       <c r="X20" t="n">
-        <v>2014.778044008243</v>
+        <v>2693.309871889246</v>
       </c>
       <c r="Y20" t="n">
-        <v>1624.638712032431</v>
+        <v>2303.170539913434</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5807,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D21" t="n">
         <v>618.1564155387305</v>
@@ -5826,16 +5828,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158128</v>
       </c>
       <c r="M21" t="n">
         <v>1212.428070438129</v>
@@ -5844,13 +5846,13 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410637</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5862,7 +5864,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V21" t="n">
         <v>1779.608347199865</v>
@@ -5871,10 +5873,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>213.4020639300938</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="C22" t="n">
-        <v>213.4020639300938</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="D22" t="n">
-        <v>213.4020639300938</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="E22" t="n">
-        <v>213.4020639300938</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="F22" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="G22" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="H22" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218343</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="J22" t="n">
-        <v>78.33486996962289</v>
+        <v>2483.053685760608</v>
       </c>
       <c r="K22" t="n">
-        <v>176.6457242372933</v>
+        <v>2581.364540028279</v>
       </c>
       <c r="L22" t="n">
-        <v>332.3555681596505</v>
+        <v>2737.074383950636</v>
       </c>
       <c r="M22" t="n">
-        <v>499.7880494588484</v>
+        <v>2904.506865249834</v>
       </c>
       <c r="N22" t="n">
-        <v>671.0968864886959</v>
+        <v>3075.815702279681</v>
       </c>
       <c r="O22" t="n">
-        <v>809.0152357068856</v>
+        <v>3213.734051497871</v>
       </c>
       <c r="P22" t="n">
-        <v>907.9662384596443</v>
+        <v>3312.685054250629</v>
       </c>
       <c r="Q22" t="n">
-        <v>920.887005818185</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R22" t="n">
-        <v>920.887005818185</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S22" t="n">
-        <v>920.887005818185</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T22" t="n">
-        <v>920.887005818185</v>
+        <v>3103.839206178696</v>
       </c>
       <c r="U22" t="n">
-        <v>920.887005818185</v>
+        <v>2814.73633930434</v>
       </c>
       <c r="V22" t="n">
-        <v>920.887005818185</v>
+        <v>2560.051851098453</v>
       </c>
       <c r="W22" t="n">
-        <v>662.1841939716412</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="X22" t="n">
-        <v>434.1946430736239</v>
+        <v>2471.230932223169</v>
       </c>
       <c r="Y22" t="n">
-        <v>213.4020639300938</v>
+        <v>2471.230932223169</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>921.7704558796265</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C23" t="n">
-        <v>552.8079389392149</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D23" t="n">
-        <v>194.5422403324644</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E23" t="n">
-        <v>108.5090151927147</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F23" t="n">
-        <v>108.5090151927147</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H23" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I23" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L23" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M23" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R23" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U23" t="n">
-        <v>2755.806928794325</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V23" t="n">
-        <v>2424.744041450754</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W23" t="n">
-        <v>2071.97538618064</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X23" t="n">
-        <v>1698.50962791956</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y23" t="n">
-        <v>1308.370295943748</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="24">
@@ -6057,16 +6059,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G24" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J24" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
         <v>398.4535849031477</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>409.7032203507504</v>
+        <v>163.837793613838</v>
       </c>
       <c r="C25" t="n">
-        <v>409.7032203507504</v>
+        <v>163.837793613838</v>
       </c>
       <c r="D25" t="n">
-        <v>259.5865809384147</v>
+        <v>163.837793613838</v>
       </c>
       <c r="E25" t="n">
-        <v>259.5865809384147</v>
+        <v>163.837793613838</v>
       </c>
       <c r="F25" t="n">
-        <v>259.5865809384147</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G25" t="n">
-        <v>259.5865809384147</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H25" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I25" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J25" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K25" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L25" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M25" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N25" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O25" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P25" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q25" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R25" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S25" t="n">
-        <v>920.887005818185</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T25" t="n">
-        <v>699.120390387711</v>
+        <v>646.5118327177422</v>
       </c>
       <c r="U25" t="n">
-        <v>699.120390387711</v>
+        <v>646.5118327177422</v>
       </c>
       <c r="V25" t="n">
-        <v>699.120390387711</v>
+        <v>391.8273445118554</v>
       </c>
       <c r="W25" t="n">
-        <v>409.7032203507504</v>
+        <v>391.8273445118554</v>
       </c>
       <c r="X25" t="n">
-        <v>409.7032203507504</v>
+        <v>163.837793613838</v>
       </c>
       <c r="Y25" t="n">
-        <v>409.7032203507504</v>
+        <v>163.837793613838</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1204.726236768953</v>
+        <v>1590.807527238422</v>
       </c>
       <c r="C26" t="n">
-        <v>835.7637198285415</v>
+        <v>1221.845010298011</v>
       </c>
       <c r="D26" t="n">
-        <v>477.498021221791</v>
+        <v>1221.845010298011</v>
       </c>
       <c r="E26" t="n">
-        <v>477.498021221791</v>
+        <v>836.0567576997664</v>
       </c>
       <c r="F26" t="n">
-        <v>66.51211643218342</v>
+        <v>425.0708529101589</v>
       </c>
       <c r="G26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J26" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K26" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L26" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M26" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N26" t="n">
         <v>2120.555556060171</v>
@@ -6248,28 +6250,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S26" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T26" t="n">
-        <v>3292.293186409815</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U26" t="n">
-        <v>3038.762709683652</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V26" t="n">
-        <v>2707.699822340081</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="W26" t="n">
-        <v>2354.931167069967</v>
+        <v>2741.012457539436</v>
       </c>
       <c r="X26" t="n">
-        <v>1981.465408808887</v>
+        <v>2367.546699278356</v>
       </c>
       <c r="Y26" t="n">
-        <v>1591.326076833075</v>
+        <v>1977.407367302544</v>
       </c>
     </row>
     <row r="27">
@@ -6300,7 +6302,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>223.643323038294</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C28" t="n">
-        <v>223.643323038294</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D28" t="n">
-        <v>223.643323038294</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E28" t="n">
-        <v>223.643323038294</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F28" t="n">
-        <v>223.643323038294</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G28" t="n">
-        <v>223.643323038294</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H28" t="n">
-        <v>77.42613625615175</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J28" t="n">
-        <v>78.33486996962287</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K28" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L28" t="n">
         <v>332.3555681596505</v>
@@ -6406,28 +6408,28 @@
         <v>920.8870058181849</v>
       </c>
       <c r="R28" t="n">
-        <v>920.8870058181849</v>
+        <v>832.0660869429007</v>
       </c>
       <c r="S28" t="n">
-        <v>920.8870058181849</v>
+        <v>832.0660869429007</v>
       </c>
       <c r="T28" t="n">
-        <v>699.1203903877109</v>
+        <v>610.2994715124267</v>
       </c>
       <c r="U28" t="n">
-        <v>699.1203903877109</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V28" t="n">
-        <v>444.4359021818241</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="W28" t="n">
-        <v>444.4359021818241</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X28" t="n">
-        <v>444.4359021818241</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y28" t="n">
-        <v>223.643323038294</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="29">
@@ -6437,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2047.583838282732</v>
+        <v>1822.632236038044</v>
       </c>
       <c r="C29" t="n">
-        <v>1678.62132134232</v>
+        <v>1453.669719097632</v>
       </c>
       <c r="D29" t="n">
-        <v>1320.35562273557</v>
+        <v>1095.404020490882</v>
       </c>
       <c r="E29" t="n">
-        <v>934.5673701373257</v>
+        <v>709.6157678926375</v>
       </c>
       <c r="F29" t="n">
-        <v>523.5814653477182</v>
+        <v>298.6298631030299</v>
       </c>
       <c r="G29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H29" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I29" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J29" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L29" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M29" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O29" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
         <v>3018.302393296687</v>
@@ -6500,13 +6502,13 @@
         <v>3325.605821609171</v>
       </c>
       <c r="W29" t="n">
-        <v>3197.788768583745</v>
+        <v>2972.837166339057</v>
       </c>
       <c r="X29" t="n">
-        <v>2824.323010322666</v>
+        <v>2599.371408077977</v>
       </c>
       <c r="Y29" t="n">
-        <v>2434.183678346854</v>
+        <v>2209.232076102166</v>
       </c>
     </row>
     <row r="30">
@@ -6516,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C30" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D30" t="n">
-        <v>618.1564155387301</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E30" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F30" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G30" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H30" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I30" t="n">
         <v>66.51211643218343</v>
@@ -6546,7 +6548,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L30" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M30" t="n">
         <v>1212.428070438129</v>
@@ -6573,7 +6575,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U30" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V30" t="n">
         <v>1779.608347199865</v>
@@ -6582,10 +6584,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X30" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y30" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="31">
@@ -6595,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2640.167115151077</v>
+        <v>3143.957356778932</v>
       </c>
       <c r="C31" t="n">
-        <v>2471.23093222317</v>
+        <v>2975.021173851025</v>
       </c>
       <c r="D31" t="n">
-        <v>2471.23093222317</v>
+        <v>2824.904534438689</v>
       </c>
       <c r="E31" t="n">
-        <v>2471.23093222317</v>
+        <v>2676.991440856296</v>
       </c>
       <c r="F31" t="n">
-        <v>2471.23093222317</v>
+        <v>2530.101493358386</v>
       </c>
       <c r="G31" t="n">
         <v>2471.23093222317</v>
@@ -6646,25 +6648,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S31" t="n">
-        <v>3157.573836086055</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T31" t="n">
-        <v>3157.573836086055</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U31" t="n">
-        <v>3157.573836086055</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V31" t="n">
-        <v>3157.573836086055</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W31" t="n">
-        <v>2868.156666049094</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="X31" t="n">
-        <v>2640.167115151077</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="Y31" t="n">
-        <v>2640.167115151077</v>
+        <v>3325.605821609171</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1636.624422581789</v>
+        <v>1544.306735920717</v>
       </c>
       <c r="C32" t="n">
-        <v>1636.624422581789</v>
+        <v>1175.344218980305</v>
       </c>
       <c r="D32" t="n">
-        <v>1278.358723975039</v>
+        <v>817.078520373555</v>
       </c>
       <c r="E32" t="n">
-        <v>892.5704713767946</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F32" t="n">
-        <v>481.5845665871869</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G32" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K32" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6722,28 +6724,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U32" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V32" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W32" t="n">
-        <v>2071.975386180639</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X32" t="n">
-        <v>1698.50962791956</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y32" t="n">
-        <v>1636.624422581789</v>
+        <v>1544.306735920717</v>
       </c>
     </row>
     <row r="33">
@@ -6774,7 +6776,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2815.39607242868</v>
+        <v>700.0944266746548</v>
       </c>
       <c r="C34" t="n">
-        <v>2815.39607242868</v>
+        <v>531.1582437467479</v>
       </c>
       <c r="D34" t="n">
-        <v>2815.39607242868</v>
+        <v>531.1582437467479</v>
       </c>
       <c r="E34" t="n">
-        <v>2815.39607242868</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F34" t="n">
-        <v>2815.39607242868</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G34" t="n">
-        <v>2714.773796186967</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H34" t="n">
-        <v>2568.556609404824</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I34" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J34" t="n">
-        <v>2483.053685760609</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K34" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L34" t="n">
-        <v>2737.074383950637</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M34" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N34" t="n">
-        <v>3075.815702279682</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O34" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P34" t="n">
-        <v>3312.68505425063</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q34" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R34" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S34" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T34" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U34" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V34" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W34" t="n">
-        <v>3036.18865157221</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X34" t="n">
-        <v>3036.18865157221</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y34" t="n">
-        <v>2815.39607242868</v>
+        <v>700.0944266746548</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>921.7704558796265</v>
+        <v>921.7704558796261</v>
       </c>
       <c r="C35" t="n">
-        <v>552.8079389392149</v>
+        <v>552.8079389392144</v>
       </c>
       <c r="D35" t="n">
-        <v>406.0926155839475</v>
+        <v>194.5422403324639</v>
       </c>
       <c r="E35" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F35" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G35" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
         <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
@@ -6965,16 +6967,16 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U35" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V35" t="n">
         <v>2424.744041450754</v>
       </c>
       <c r="W35" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X35" t="n">
         <v>1698.50962791956</v>
@@ -7008,7 +7010,7 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064538</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218342</v>
@@ -7020,7 +7022,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2471.23093222317</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I37" t="n">
-        <v>2471.23093222317</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J37" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K37" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L37" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M37" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N37" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O37" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P37" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q37" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R37" t="n">
-        <v>3325.605821609171</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="S37" t="n">
-        <v>3325.605821609171</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="T37" t="n">
-        <v>3325.605821609171</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="U37" t="n">
-        <v>3036.502954734815</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="V37" t="n">
-        <v>3036.502954734815</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="W37" t="n">
-        <v>2747.085784697854</v>
+        <v>865.8788942318776</v>
       </c>
       <c r="X37" t="n">
-        <v>2519.096233799837</v>
+        <v>637.8893433338602</v>
       </c>
       <c r="Y37" t="n">
-        <v>2471.23093222317</v>
+        <v>417.0967641903301</v>
       </c>
     </row>
     <row r="38">
@@ -7148,40 +7150,40 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1832.276849100055</v>
+        <v>1822.632236038042</v>
       </c>
       <c r="C38" t="n">
-        <v>1463.314332159643</v>
+        <v>1453.669719097631</v>
       </c>
       <c r="D38" t="n">
-        <v>1463.314332159643</v>
+        <v>1095.40402049088</v>
       </c>
       <c r="E38" t="n">
-        <v>1077.526079561399</v>
+        <v>709.6157678926361</v>
       </c>
       <c r="F38" t="n">
-        <v>666.5401747717915</v>
+        <v>298.6298631030285</v>
       </c>
       <c r="G38" t="n">
-        <v>251.467724616788</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N38" t="n">
         <v>2120.555556060171</v>
@@ -7193,31 +7195,31 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U38" t="n">
-        <v>2961.784676410103</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V38" t="n">
-        <v>2961.784676410103</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W38" t="n">
-        <v>2609.016021139988</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X38" t="n">
-        <v>2609.016021139988</v>
+        <v>2599.371408077976</v>
       </c>
       <c r="Y38" t="n">
-        <v>2218.876689164177</v>
+        <v>2209.232076102164</v>
       </c>
     </row>
     <row r="39">
@@ -7242,16 +7244,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
         <v>398.4535849031479</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J40" t="n">
-        <v>2483.05368576061</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K40" t="n">
-        <v>2581.36454002828</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L40" t="n">
-        <v>2737.074383950638</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M40" t="n">
-        <v>2904.506865249835</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N40" t="n">
-        <v>3075.815702279683</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O40" t="n">
-        <v>3213.734051497872</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P40" t="n">
-        <v>3312.685054250631</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q40" t="n">
-        <v>3325.605821609171</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R40" t="n">
-        <v>3235.775364366699</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S40" t="n">
-        <v>3044.089480193526</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T40" t="n">
-        <v>3015.018287303414</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U40" t="n">
-        <v>2725.915420429057</v>
+        <v>831.4063538185609</v>
       </c>
       <c r="V40" t="n">
-        <v>2471.23093222317</v>
+        <v>576.721865612674</v>
       </c>
       <c r="W40" t="n">
-        <v>2471.23093222317</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="X40" t="n">
-        <v>2471.23093222317</v>
+        <v>287.3046955757135</v>
       </c>
       <c r="Y40" t="n">
-        <v>2471.23093222317</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="41">
@@ -7385,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1930.094988518961</v>
+        <v>1616.654488422265</v>
       </c>
       <c r="C41" t="n">
-        <v>1561.13247157855</v>
+        <v>1247.691971481853</v>
       </c>
       <c r="D41" t="n">
-        <v>1202.866772971799</v>
+        <v>889.4262728751025</v>
       </c>
       <c r="E41" t="n">
-        <v>817.078520373555</v>
+        <v>503.6380202768583</v>
       </c>
       <c r="F41" t="n">
-        <v>406.0926155839475</v>
+        <v>92.65211548725074</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>92.65211548725074</v>
       </c>
       <c r="H41" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J41" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L41" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
         <v>2120.555556060171</v>
@@ -7433,28 +7435,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T41" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U41" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V41" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="W41" t="n">
-        <v>2862.546497866152</v>
+        <v>2766.859418723278</v>
       </c>
       <c r="X41" t="n">
-        <v>2706.834160558895</v>
+        <v>2393.393660462198</v>
       </c>
       <c r="Y41" t="n">
-        <v>2316.694828583083</v>
+        <v>2003.254328486386</v>
       </c>
     </row>
     <row r="42">
@@ -7479,16 +7481,16 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031479</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>603.0669976776956</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C43" t="n">
-        <v>603.0669976776956</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D43" t="n">
-        <v>529.0179941377679</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E43" t="n">
-        <v>381.1049005553748</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F43" t="n">
-        <v>234.2149530574645</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J43" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K43" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L43" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M43" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N43" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O43" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P43" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q43" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R43" t="n">
-        <v>831.0565485757129</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S43" t="n">
-        <v>831.0565485757129</v>
+        <v>832.0660869429007</v>
       </c>
       <c r="T43" t="n">
-        <v>831.0565485757129</v>
+        <v>610.2994715124267</v>
       </c>
       <c r="U43" t="n">
-        <v>831.0565485757129</v>
+        <v>321.1966046380703</v>
       </c>
       <c r="V43" t="n">
-        <v>831.0565485757129</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="W43" t="n">
-        <v>831.0565485757129</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="X43" t="n">
-        <v>603.0669976776956</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="Y43" t="n">
-        <v>603.0669976776956</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="44">
@@ -7622,10 +7624,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1969.42314369238</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C44" t="n">
-        <v>1600.460626751969</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D44" t="n">
         <v>1278.358723975039</v>
@@ -7637,13 +7639,13 @@
         <v>481.5845665871869</v>
       </c>
       <c r="G44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I44" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
         <v>255.3912473912089</v>
@@ -7655,7 +7657,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N44" t="n">
         <v>2120.555556060171</v>
@@ -7676,22 +7678,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T44" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U44" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V44" t="n">
-        <v>3119.628073993394</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W44" t="n">
-        <v>3119.628073993394</v>
+        <v>3155.791869823214</v>
       </c>
       <c r="X44" t="n">
-        <v>2746.162315732314</v>
+        <v>2782.326111562134</v>
       </c>
       <c r="Y44" t="n">
-        <v>2356.022983756502</v>
+        <v>2392.186779586323</v>
       </c>
     </row>
     <row r="45">
@@ -7701,37 +7703,37 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G45" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I45" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J45" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7758,7 +7760,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7769,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>214.4252100145765</v>
+        <v>511.2489900899278</v>
       </c>
       <c r="C46" t="n">
-        <v>214.4252100145765</v>
+        <v>342.3128071620209</v>
       </c>
       <c r="D46" t="n">
-        <v>214.4252100145765</v>
+        <v>342.3128071620209</v>
       </c>
       <c r="E46" t="n">
-        <v>66.51211643218343</v>
+        <v>342.3128071620209</v>
       </c>
       <c r="F46" t="n">
-        <v>66.51211643218343</v>
+        <v>342.3128071620209</v>
       </c>
       <c r="G46" t="n">
-        <v>66.51211643218343</v>
+        <v>174.6099705367399</v>
       </c>
       <c r="H46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I46" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K46" t="n">
         <v>176.6457242372933</v>
@@ -7813,43 +7815,43 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M46" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N46" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O46" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P46" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S46" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T46" t="n">
-        <v>758.2125650948199</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U46" t="n">
-        <v>469.1096982204634</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V46" t="n">
-        <v>214.4252100145765</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W46" t="n">
-        <v>214.4252100145765</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X46" t="n">
-        <v>214.4252100145765</v>
+        <v>692.8974549201675</v>
       </c>
       <c r="Y46" t="n">
-        <v>214.4252100145765</v>
+        <v>692.8974549201675</v>
       </c>
     </row>
   </sheetData>
@@ -22544,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>294.6430235040498</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543631</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059419</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753916</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>413.097833230058</v>
@@ -22592,25 +22594,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>213.4438810562068</v>
+        <v>48.27134388011225</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121492</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -22680,19 +22682,19 @@
         <v>195.4095977920013</v>
       </c>
       <c r="U3" t="n">
-        <v>38.33818124377106</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831054</v>
+        <v>67.62804997333075</v>
       </c>
       <c r="W3" t="n">
         <v>64.16939599459974</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>18.24739803715761</v>
       </c>
       <c r="Y3" t="n">
-        <v>40.51015860120992</v>
+        <v>18.15710861098449</v>
       </c>
     </row>
     <row r="4">
@@ -22781,28 +22783,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>195.2082544971608</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C5" t="n">
-        <v>277.182073611577</v>
+        <v>177.7473046046877</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>194.404782905942</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>219.3504585753917</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.097833230058</v>
       </c>
       <c r="H5" t="n">
-        <v>316.8938261062223</v>
+        <v>277.1926060501026</v>
       </c>
       <c r="I5" t="n">
-        <v>125.4713171199748</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22829,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S5" t="n">
         <v>158.7758131900531</v>
@@ -22850,7 +22852,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="6">
@@ -22881,10 +22883,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I6" t="n">
-        <v>58.90455890409151</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J6" t="n">
-        <v>15.37922103265844</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>72.43289562846323</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>149.7702446909496</v>
+        <v>57.03060314331836</v>
       </c>
       <c r="T6" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681384</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377106</v>
       </c>
       <c r="V6" t="n">
-        <v>45.27499998310552</v>
+        <v>45.2749999831054</v>
       </c>
       <c r="W6" t="n">
-        <v>64.16939599459985</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>40.60044802738312</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>18.15710861098461</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22963,10 +22965,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J7" t="n">
-        <v>57.06999962825421</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K7" t="n">
-        <v>14.10430989402857</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,10 +22983,10 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>18.10760906709392</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>68.68604055159729</v>
+        <v>34.57770336425668</v>
       </c>
       <c r="R7" t="n">
         <v>132.8223696106904</v>
@@ -22993,7 +22995,7 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T7" t="n">
-        <v>171.5037272356659</v>
+        <v>223.7196734901001</v>
       </c>
       <c r="U7" t="n">
         <v>286.2650814934503</v>
@@ -23018,28 +23020,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>195.2082544971607</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>358.8761677849661</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>213.4438810562068</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>251.1692605650303</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>99.7524904604208</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>182.2055135121491</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897337</v>
       </c>
     </row>
     <row r="9">
@@ -23097,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>153.6907962702647</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>34.17368120965847</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23151,22 +23153,22 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23185,25 +23187,25 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.4336708318196</v>
       </c>
       <c r="I10" t="n">
-        <v>98.42849156834879</v>
+        <v>125.7072197708667</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,22 +23220,22 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>132.8223696106904</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>171.5037272356657</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2350578157167</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23255,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>265.6997797295181</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23318,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>270.4601319683936</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23434,7 +23436,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23473,7 +23475,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>190.7684683149579</v>
+        <v>101.8363156449113</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>107.9929497210578</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>197.2854761230496</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23665,13 +23667,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>59.55223036870407</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>190.7684683149579</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23729,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23747,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>84.51310991089036</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,22 +23782,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>335.5614355219852</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23890,10 +23892,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23905,10 +23907,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>59.08047728015218</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>198.5902886500595</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>348.950861224899</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23981,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24017,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>198.6712525542659</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24093,7 +24095,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>1.388111847688833e-12</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -24136,7 +24138,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.0258082590282</v>
@@ -24145,7 +24147,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>30.40721460851267</v>
+        <v>198.5902886500599</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24212,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>296.7574771839096</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H23" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,16 +24256,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24367,7 +24369,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,7 +24381,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>49.9637154629899</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24409,25 +24411,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>36.84968057677824</v>
       </c>
       <c r="U25" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24446,16 +24448,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>55.94857654025776</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -24494,7 +24496,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>170.9384612922581</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24503,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>85.54754078410944</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0.9994429835160048</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -24655,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>181.1251564493155</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24740,7 +24742,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>222.7020862222412</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24835,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>107.7439527351652</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
@@ -24886,7 +24888,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>23.41735966355665</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -24898,10 +24900,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24917,25 +24919,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24983,7 +24985,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>324.971585371661</v>
+        <v>233.5770755772005</v>
       </c>
     </row>
     <row r="33">
@@ -25075,25 +25077,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>142.6361678014306</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>66.40975477973163</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,7 +25137,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -25157,10 +25159,10 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>209.4348714989682</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>255.1805474109841</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25169,10 +25171,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25309,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>34.47412219960307</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
@@ -25366,19 +25368,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.1980047911947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25394,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25403,10 +25405,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>181.1251564493168</v>
       </c>
       <c r="H38" t="n">
-        <v>111.501712284562</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292595</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25454,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25594,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
-        <v>190.7684683149584</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>197.6259927259851</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25643,10 +25645,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>268.7291653228038</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -25691,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>215.5758867442844</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25789,16 +25791,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>75.30695951368399</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
@@ -25831,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>101.8363156449106</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>35.80215787152247</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25916,7 +25918,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -25925,7 +25927,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>181.1251564493163</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>37.73813935080987</v>
       </c>
       <c r="I46" t="n">
         <v>96.35242040983809</v>
@@ -26074,19 +26076,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>58.50125296003773</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>424931.0936061951</v>
+        <v>424931.0936061952</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>424931.0936061949</v>
+        <v>424931.0936061952</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>658545.8706526518</v>
+        <v>424931.0936061952</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903114</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>839054.4922903116</v>
+        <v>839054.4922903115</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>839054.4922903117</v>
+        <v>839054.4922903116</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>158307.6623238765</v>
       </c>
       <c r="C2" t="n">
-        <v>158307.6623238764</v>
+        <v>158307.6623238765</v>
       </c>
       <c r="D2" t="n">
-        <v>245340.6184784387</v>
+        <v>158307.6623238765</v>
       </c>
       <c r="E2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003116</v>
       </c>
       <c r="F2" t="n">
         <v>312588.9285003117</v>
       </c>
       <c r="G2" t="n">
-        <v>312588.9285003119</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="H2" t="n">
-        <v>312588.9285003121</v>
+        <v>312588.9285003116</v>
       </c>
       <c r="I2" t="n">
+        <v>312588.9285003117</v>
+      </c>
+      <c r="J2" t="n">
+        <v>312588.9285003117</v>
+      </c>
+      <c r="K2" t="n">
         <v>312588.9285003118</v>
       </c>
-      <c r="J2" t="n">
-        <v>312588.9285003119</v>
-      </c>
-      <c r="K2" t="n">
-        <v>312588.928500312</v>
-      </c>
       <c r="L2" t="n">
-        <v>312588.9285003118</v>
+        <v>312588.9285003117</v>
       </c>
       <c r="M2" t="n">
         <v>312588.9285003117</v>
       </c>
       <c r="N2" t="n">
+        <v>312588.9285003116</v>
+      </c>
+      <c r="O2" t="n">
+        <v>312588.9285003116</v>
+      </c>
+      <c r="P2" t="n">
         <v>312588.9285003117</v>
-      </c>
-      <c r="O2" t="n">
-        <v>312588.9285003118</v>
-      </c>
-      <c r="P2" t="n">
-        <v>312588.9285003118</v>
       </c>
     </row>
     <row r="3">
@@ -26369,13 +26371,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>371558.5249487663</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>276030.74576691</v>
+        <v>627134.6436336671</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.594527697714511e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,19 +26386,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>3.42310613632435e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854456</v>
+        <v>49064.94472854459</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>89743.37813127032</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>72091.35261608617</v>
+        <v>160456.4418678774</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26420,46 @@
         <v>137.800118072334</v>
       </c>
       <c r="C4" t="n">
-        <v>137.8001180723338</v>
+        <v>137.800118072334</v>
       </c>
       <c r="D4" t="n">
-        <v>384.3219252469136</v>
+        <v>137.800118072334</v>
       </c>
       <c r="E4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061228</v>
       </c>
       <c r="F4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="G4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061228</v>
       </c>
       <c r="H4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.646989006123</v>
       </c>
       <c r="I4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="J4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="K4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="L4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="M4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="N4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="O4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
       <c r="P4" t="n">
-        <v>584.6469890061232</v>
+        <v>584.6469890061231</v>
       </c>
     </row>
     <row r="5">
@@ -26470,43 +26472,43 @@
         <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>56985.80041161356</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="E5" t="n">
+        <v>74306.34056139327</v>
+      </c>
+      <c r="F5" t="n">
         <v>74306.34056139328</v>
       </c>
-      <c r="F5" t="n">
-        <v>74306.3405613933</v>
-      </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="H5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="N5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139328</v>
       </c>
       <c r="P5" t="n">
         <v>74306.3405613933</v>
@@ -26522,46 +26524,46 @@
         <v>-490172.8407266547</v>
       </c>
       <c r="C6" t="n">
-        <v>101184.0617941907</v>
+        <v>101184.0617941906</v>
       </c>
       <c r="D6" t="n">
-        <v>-211801.3102514468</v>
+        <v>101184.0617941906</v>
       </c>
       <c r="E6" t="n">
-        <v>-38332.80481699752</v>
+        <v>-389436.702683755</v>
       </c>
       <c r="F6" t="n">
+        <v>237697.9409499119</v>
+      </c>
+      <c r="G6" t="n">
+        <v>237697.9409499126</v>
+      </c>
+      <c r="H6" t="n">
+        <v>237697.9409499121</v>
+      </c>
+      <c r="I6" t="n">
+        <v>237697.9409499119</v>
+      </c>
+      <c r="J6" t="n">
+        <v>188632.9962213677</v>
+      </c>
+      <c r="K6" t="n">
+        <v>237697.9409499124</v>
+      </c>
+      <c r="L6" t="n">
         <v>237697.9409499123</v>
       </c>
-      <c r="G6" t="n">
-        <v>237697.9409499124</v>
-      </c>
-      <c r="H6" t="n">
-        <v>237697.9409499126</v>
-      </c>
-      <c r="I6" t="n">
-        <v>237697.9409499124</v>
-      </c>
-      <c r="J6" t="n">
-        <v>188632.9962213679</v>
-      </c>
-      <c r="K6" t="n">
-        <v>237697.9409499126</v>
-      </c>
-      <c r="L6" t="n">
-        <v>147954.5628186421</v>
-      </c>
       <c r="M6" t="n">
-        <v>165606.5883338262</v>
+        <v>77241.49908203498</v>
       </c>
       <c r="N6" t="n">
+        <v>237697.9409499122</v>
+      </c>
+      <c r="O6" t="n">
+        <v>237697.9409499121</v>
+      </c>
+      <c r="P6" t="n">
         <v>237697.9409499123</v>
-      </c>
-      <c r="O6" t="n">
-        <v>237697.9409499124</v>
-      </c>
-      <c r="P6" t="n">
-        <v>237697.9409499124</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26740,10 @@
         <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>548.4699409129043</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26790,46 +26792,46 @@
         <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261632</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="E4" t="n">
+        <v>831.4014554022924</v>
+      </c>
+      <c r="F4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="F4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="L4" t="n">
+        <v>831.4014554022925</v>
+      </c>
+      <c r="M4" t="n">
         <v>831.4014554022928</v>
       </c>
-      <c r="M4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26963,13 +26965,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>305.2407236247798</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>236.0660360556142</v>
+        <v>541.3067596803933</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26978,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27015,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>354.5893695598435</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>289.2864986761293</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598434</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761294</v>
+        <v>643.8758682359727</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>354.5893695598435</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>289.2864986761293</v>
+        <v>643.8758682359725</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H5" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I5" t="n">
-        <v>85.00457245043116</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J5" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K5" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L5" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M5" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N5" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O5" t="n">
-        <v>371.5015668622678</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P5" t="n">
-        <v>317.0679923244293</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q5" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R5" t="n">
         <v>138.5038187974683</v>
       </c>
       <c r="S5" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T5" t="n">
-        <v>9.651968507924575</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U5" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31358,46 +31360,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H6" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I6" t="n">
-        <v>40.61782109590849</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J6" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K6" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L6" t="n">
         <v>256.1509851405032</v>
       </c>
       <c r="M6" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N6" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O6" t="n">
-        <v>280.6872536292672</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P6" t="n">
-        <v>225.2762668628871</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q6" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R6" t="n">
-        <v>73.24660833550072</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S6" t="n">
-        <v>21.91292641288819</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T6" t="n">
-        <v>4.755130902820367</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07761367088390159</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9890441557445815</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H7" t="n">
-        <v>8.793501675620012</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I7" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J7" t="n">
-        <v>69.9254218111419</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K7" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L7" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M7" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N7" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O7" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P7" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.81896107784856</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R7" t="n">
-        <v>44.47102176647908</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S7" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T7" t="n">
-        <v>4.225915938181393</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0539478630406136</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T11" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H12" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R12" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U12" t="n">
         <v>0.1542136840462215</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H13" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q13" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095029</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623197</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563583</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H21" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q22" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33044,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33266,7 +33268,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
         <v>593.9283018233475</v>
@@ -33913,7 +33915,7 @@
         <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781694</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
         <v>275.1987363563569</v>
@@ -34153,7 +34155,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
         <v>99.83230779806951</v>
@@ -34229,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34390,7 +34392,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563574</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S44" t="n">
         <v>99.83230779806951</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>6.092590538867967</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K5" t="n">
-        <v>60.38224240788321</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L5" t="n">
-        <v>112.1840179973019</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M5" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N5" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O5" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P5" t="n">
-        <v>85.83499656915973</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q5" t="n">
-        <v>15.79916774065964</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,25 +35017,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>52.65872908781461</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L6" t="n">
         <v>117.596605360629</v>
       </c>
       <c r="M6" t="n">
-        <v>156.7820838755145</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N6" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O6" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P6" t="n">
-        <v>91.30185944855685</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q6" t="n">
-        <v>10.6094444076499</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,16 +35099,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>12.15921574646072</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M7" t="n">
-        <v>16.11138312061146</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N7" t="n">
-        <v>23.66518529520818</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O7" t="n">
-        <v>1.340357307400467</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -35170,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K13" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L13" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M13" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N13" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O13" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P13" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q13" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129119</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K19" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L19" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M19" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N19" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O19" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P19" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q19" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923325</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034283</v>
       </c>
       <c r="K22" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966696</v>
       </c>
       <c r="L22" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M22" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N22" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O22" t="n">
-        <v>139.3114638567573</v>
+        <v>139.3114638567572</v>
       </c>
       <c r="P22" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106922</v>
       </c>
       <c r="Q22" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014211</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36692,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,7 +36916,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
         <v>451.7942679013292</v>
@@ -37561,7 +37563,7 @@
         <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037199</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
         <v>59.61319854222478</v>
@@ -37801,7 +37803,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37877,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222526</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
